--- a/pred_ohlcv/54_21/2020-01-23 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2252667.402</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2709599.4108</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2709599.4108</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2709374.8857</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2709974.8857</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2709750.2642</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2764692.3976</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2764692.3976</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2916751.3976</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2917473.3976</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2917473.3976</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2705489.4341</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2692064.0474</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2692290.5726</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-3992290.5726</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3991388.064299999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3991388.064299999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3991162.449099999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5491539.986699999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5459810.6745</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-5786709.347499999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5785537.5057</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-5785537.5057</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5808472.652299999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6462388.637599999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6461793.211999999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6462521.211999999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-6529494.225</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-7200465.4416</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7200465.4416</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6975284.534999999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-6969881.356899999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6968799.677599999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6969049.677599999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6969299.677599999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6964942.384899999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6940279.948099999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-6940529.948099999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7435964.834499999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-7434369.929199999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7434369.929199999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7434369.929199999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7498183.380899999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7498183.380899999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-6583283.356999999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-6583523.356999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-6583273.356999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-6583840.535799999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-6584080.535799999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6583647.714599999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-6767458.352299999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-6765918.352299999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-6845882.862899998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-7385706.606899998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-14285540.32329999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-14074799.19539999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-13714356.16089999</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-14713846.75629999</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-15131607.2185</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-19220441.53529999</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-35994714.41499902</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-35975783.10499902</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-35995889.02069902</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-36040382.82479902</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-36040382.82479902</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-35951910.34769902</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-33702237.94159902</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-33725539.43866328</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-33725539.43866328</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-33736275.62729902</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-34608647.04539804</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-34609540.85539804</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-34603981.43819804</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-34765596.02369804</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2252667.402</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2709599.4108</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2709599.4108</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2709374.8857</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2709974.8857</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2709750.2642</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2764692.3976</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2764692.3976</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2916751.3976</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2917473.3976</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2917473.3976</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2705489.4341</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2692064.0474</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2692290.5726</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-3992290.5726</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3991388.064299999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3991388.064299999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3991162.449099999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5491539.986699999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5459810.6745</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5808472.652299999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6462388.637599999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6462521.211999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-6529494.225</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6969049.677599999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6969049.677599999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6969299.677599999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-6967773.287999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6964942.384899999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6940279.948099999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-6940529.948099999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7435964.834499999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7498183.380899999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7498183.380899999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-6583283.356999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-6583523.356999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-6583273.356999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-6583840.535799999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-6584080.535799999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6583647.714599999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-14025425.5753</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-14285540.32329999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-14284407.32329999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-14074799.19539999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-14074799.19539999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-13714356.16089999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-14813795.05899999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-14713846.75629999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-15131607.2185</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-19220441.53529999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-19599230.51739999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-19632252.76449999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-17264646.96759999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-15472942.08039999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-16091266.72799999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-35994714.41499902</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-35975783.10499902</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-35995889.02069902</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-36040382.82479902</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-36040382.82479902</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-35952338.79119902</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-33728853.71019804</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-33728853.71019804</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-34608647.04539804</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-34609540.85539804</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-34603981.43819804</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-34765596.02369804</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
